--- a/uploads/temp_file.xlsx
+++ b/uploads/temp_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Six square\Desktop\網管\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE4A1AB-B431-4F6A-93E9-9FE12DF770A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993EE94F-EC45-43B7-B525-DE1E497333EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,502 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="2">
-  <si>
-    <t>a</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+  <si>
+    <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>S11350101</t>
+  </si>
+  <si>
+    <t>S11350102</t>
+  </si>
+  <si>
+    <t>S11350103</t>
+  </si>
+  <si>
+    <t>S11350104</t>
+  </si>
+  <si>
+    <t>S11350105</t>
+  </si>
+  <si>
+    <t>S11350106</t>
+  </si>
+  <si>
+    <t>S11350107</t>
+  </si>
+  <si>
+    <t>S11350108</t>
+  </si>
+  <si>
+    <t>S11350109</t>
+  </si>
+  <si>
+    <t>S11350110</t>
+  </si>
+  <si>
+    <t>S11350111</t>
+  </si>
+  <si>
+    <t>S11350112</t>
+  </si>
+  <si>
+    <t>S11350113</t>
+  </si>
+  <si>
+    <t>S11350114</t>
+  </si>
+  <si>
+    <t>S11350115</t>
+  </si>
+  <si>
+    <t>S11350116</t>
+  </si>
+  <si>
+    <t>S11350117</t>
+  </si>
+  <si>
+    <t>S11350118</t>
+  </si>
+  <si>
+    <t>S11350119</t>
+  </si>
+  <si>
+    <t>S11350120</t>
+  </si>
+  <si>
+    <t>S11350121</t>
+  </si>
+  <si>
+    <t>S11350122</t>
+  </si>
+  <si>
+    <t>S11350123</t>
+  </si>
+  <si>
+    <t>S11350124</t>
+  </si>
+  <si>
+    <t>S11350125</t>
+  </si>
+  <si>
+    <t>S11350126</t>
+  </si>
+  <si>
+    <t>S11350127</t>
+  </si>
+  <si>
+    <t>S11350128</t>
+  </si>
+  <si>
+    <t>S11350129</t>
+  </si>
+  <si>
+    <t>S11350130</t>
+  </si>
+  <si>
+    <t>S11350132</t>
+  </si>
+  <si>
+    <t>S11350133</t>
+  </si>
+  <si>
+    <t>S11350134</t>
+  </si>
+  <si>
+    <t>S11350135</t>
+  </si>
+  <si>
+    <t>S11350136</t>
+  </si>
+  <si>
+    <t>S11350137</t>
+  </si>
+  <si>
+    <t>S11350138</t>
+  </si>
+  <si>
+    <t>S11350139</t>
+  </si>
+  <si>
+    <t>S11350140</t>
+  </si>
+  <si>
+    <t>S11350141</t>
+  </si>
+  <si>
+    <t>S11350142</t>
+  </si>
+  <si>
+    <t>S11350143</t>
+  </si>
+  <si>
+    <t>S11350144</t>
+  </si>
+  <si>
+    <t>S11350145</t>
+  </si>
+  <si>
+    <t>S11350146</t>
+  </si>
+  <si>
+    <t>S11350147</t>
+  </si>
+  <si>
+    <t>S11350148</t>
+  </si>
+  <si>
+    <t>S11350149</t>
+  </si>
+  <si>
+    <t>S11350150</t>
+  </si>
+  <si>
+    <t>s11350152</t>
+  </si>
+  <si>
+    <t>S11350158</t>
+  </si>
+  <si>
+    <t>S11350162</t>
+  </si>
+  <si>
+    <t>S11350201</t>
+  </si>
+  <si>
+    <t>S11350202</t>
+  </si>
+  <si>
+    <t>S11350203</t>
+  </si>
+  <si>
+    <t>S11350204</t>
+  </si>
+  <si>
+    <t>S11350205</t>
+  </si>
+  <si>
+    <t>S11350206</t>
+  </si>
+  <si>
+    <t>S11350207</t>
+  </si>
+  <si>
+    <t>S11350208</t>
+  </si>
+  <si>
+    <t>S11350209</t>
+  </si>
+  <si>
+    <t>S11350210</t>
+  </si>
+  <si>
+    <t>S11350211</t>
+  </si>
+  <si>
+    <t>S11350212</t>
+  </si>
+  <si>
+    <t>S11350213</t>
+  </si>
+  <si>
+    <t>S11350214</t>
+  </si>
+  <si>
+    <t>S11350215</t>
+  </si>
+  <si>
+    <t>S11350216</t>
+  </si>
+  <si>
+    <t>S11350217</t>
+  </si>
+  <si>
+    <t>S11350218</t>
+  </si>
+  <si>
+    <t>S11350219</t>
+  </si>
+  <si>
+    <t>S11350220</t>
+  </si>
+  <si>
+    <t>S11350221</t>
+  </si>
+  <si>
+    <t>S11350222</t>
+  </si>
+  <si>
+    <t>S11350223</t>
+  </si>
+  <si>
+    <t>S11350224</t>
+  </si>
+  <si>
+    <t>S11350225</t>
+  </si>
+  <si>
+    <t>S11350226</t>
+  </si>
+  <si>
+    <t>S11350227</t>
+  </si>
+  <si>
+    <t>S11350228</t>
+  </si>
+  <si>
+    <t>S11350230</t>
+  </si>
+  <si>
+    <t>S11350231</t>
+  </si>
+  <si>
+    <t>S11350232</t>
+  </si>
+  <si>
+    <t>S11350233</t>
+  </si>
+  <si>
+    <t>S11350234</t>
+  </si>
+  <si>
+    <t>S11350235</t>
+  </si>
+  <si>
+    <t>S11350236</t>
+  </si>
+  <si>
+    <t>S11350237</t>
+  </si>
+  <si>
+    <t>S11350238</t>
+  </si>
+  <si>
+    <t>S11350239</t>
+  </si>
+  <si>
+    <t>S11350240</t>
+  </si>
+  <si>
+    <t>S11350241</t>
+  </si>
+  <si>
+    <t>S11350243</t>
+  </si>
+  <si>
+    <t>S11350244</t>
+  </si>
+  <si>
+    <t>S11350245</t>
+  </si>
+  <si>
+    <t>S11350246</t>
+  </si>
+  <si>
+    <t>S11350247</t>
+  </si>
+  <si>
+    <t>S11350248</t>
+  </si>
+  <si>
+    <t>S11350249</t>
+  </si>
+  <si>
+    <t>S11240010</t>
+  </si>
+  <si>
+    <t>S11350301</t>
+  </si>
+  <si>
+    <t>S11350302</t>
+  </si>
+  <si>
+    <t>S11350303</t>
+  </si>
+  <si>
+    <t>S11350304</t>
+  </si>
+  <si>
+    <t>S11350305</t>
+  </si>
+  <si>
+    <t>S11350306</t>
+  </si>
+  <si>
+    <t>S11350307</t>
+  </si>
+  <si>
+    <t>S11350308</t>
+  </si>
+  <si>
+    <t>S11350309</t>
+  </si>
+  <si>
+    <t>S11350310</t>
+  </si>
+  <si>
+    <t>S11350312</t>
+  </si>
+  <si>
+    <t>S11350313</t>
+  </si>
+  <si>
+    <t>S11350314</t>
+  </si>
+  <si>
+    <t>S11350315</t>
+  </si>
+  <si>
+    <t>S11350316</t>
+  </si>
+  <si>
+    <t>S11350317</t>
+  </si>
+  <si>
+    <t>S11350318</t>
+  </si>
+  <si>
+    <t>S11350319</t>
+  </si>
+  <si>
+    <t>S11350320</t>
+  </si>
+  <si>
+    <t>S11350321</t>
+  </si>
+  <si>
+    <t>S11350322</t>
+  </si>
+  <si>
+    <t>S11350323</t>
+  </si>
+  <si>
+    <t>S11350324</t>
+  </si>
+  <si>
+    <t>S11350325</t>
+  </si>
+  <si>
+    <t>S11350326</t>
+  </si>
+  <si>
+    <t>S11350327</t>
+  </si>
+  <si>
+    <t>S11350328</t>
+  </si>
+  <si>
+    <t>S11350329</t>
+  </si>
+  <si>
+    <t>S11350330</t>
+  </si>
+  <si>
+    <t>S11350331</t>
+  </si>
+  <si>
+    <t>S11350333</t>
+  </si>
+  <si>
+    <t>S11350334</t>
+  </si>
+  <si>
+    <t>S11350335</t>
+  </si>
+  <si>
+    <t>S11350336</t>
+  </si>
+  <si>
+    <t>S11350337</t>
+  </si>
+  <si>
+    <t>S11350338</t>
+  </si>
+  <si>
+    <t>S11350339</t>
+  </si>
+  <si>
+    <t>S11350340</t>
+  </si>
+  <si>
+    <t>S11350341</t>
+  </si>
+  <si>
+    <t>S11350342</t>
+  </si>
+  <si>
+    <t>S11350343</t>
+  </si>
+  <si>
+    <t>S11350344</t>
+  </si>
+  <si>
+    <t>S11350345</t>
+  </si>
+  <si>
+    <t>S11350346</t>
+  </si>
+  <si>
+    <t>S11350347</t>
+  </si>
+  <si>
+    <t>S11350348</t>
+  </si>
+  <si>
+    <t>S11350349</t>
+  </si>
+  <si>
+    <t>S11350350</t>
+  </si>
+  <si>
+    <t>S11350351</t>
+  </si>
+  <si>
+    <t>S11350352</t>
+  </si>
+  <si>
+    <t>S11350353</t>
+  </si>
+  <si>
+    <t>S11350602</t>
+  </si>
+  <si>
+    <t>S11350608</t>
+  </si>
+  <si>
+    <t>S11350609</t>
+  </si>
+  <si>
+    <t>S11350702</t>
+  </si>
+  <si>
+    <t>S11350704</t>
+  </si>
+  <si>
+    <t>S11350705</t>
+  </si>
+  <si>
+    <t>S11350803</t>
+  </si>
+  <si>
+    <t>S11350804</t>
+  </si>
+  <si>
+    <t>S11350806</t>
+  </si>
+  <si>
+    <t>S11350808</t>
+  </si>
+  <si>
+    <t>S11350812</t>
+  </si>
+  <si>
+    <t>S11350813</t>
+  </si>
+  <si>
+    <t>S11490079</t>
   </si>
 </sst>
 </file>
@@ -75,8 +563,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -357,140 +848,837 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:A165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A16"/>
+      <selection activeCell="A2" sqref="A2:A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/temp_file.xlsx
+++ b/uploads/temp_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Six square\Desktop\網管\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF06374-7B4D-4A88-A1D5-F5B9037C6B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76C9AB3-76D5-414F-8EEE-5B92CC7AD3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,21 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>學號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S09350147</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S09350107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S09350212</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -48,30 +36,25 @@
   </si>
   <si>
     <t>S10350137</t>
-  </si>
-  <si>
-    <t>S10350138</t>
-  </si>
-  <si>
-    <t>S10350139</t>
-  </si>
-  <si>
-    <t>S10350140</t>
-  </si>
-  <si>
-    <t>S10410332</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S11350218</t>
+    <t>S10350134</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s10350135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S10350320</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +69,12 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -95,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,14 +92,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF8C8C8C"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF8C8C8C"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF8C8C8C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF8C8C8C"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -395,10 +402,16 @@
   <dimension ref="A1:A165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -407,12 +420,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
@@ -420,40 +433,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -920,5 +923,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/uploads/temp_file.xlsx
+++ b/uploads/temp_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Six square\Desktop\網管\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76C9AB3-76D5-414F-8EEE-5B92CC7AD3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8700BD-61DC-4D7D-87E5-AE3B64E4631C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,36 +25,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S10350136</t>
+    <t>test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S10350137</t>
+    <t>test2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S10350134</t>
+    <t>test3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s10350135</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>test4</t>
   </si>
   <si>
-    <t>S10350320</t>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,12 +71,6 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -84,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -92,32 +88,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF8C8C8C"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF8C8C8C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF8C8C8C"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF8C8C8C"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,7 +380,7 @@
   <dimension ref="A1:A165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -433,18 +411,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>

--- a/uploads/temp_file.xlsx
+++ b/uploads/temp_file.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Six square\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Six square\Desktop\網管\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CFBEE6-5944-45D0-A999-2A53F5D81601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA40465-6FA8-4426-8943-ECEEFC90B2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,25 +25,346 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+  <si>
+    <t>S05351013</t>
+  </si>
+  <si>
+    <t>S05351014</t>
+  </si>
+  <si>
+    <t>S05351015</t>
+  </si>
+  <si>
+    <t>S05351017</t>
+  </si>
+  <si>
+    <t>S05351018</t>
+  </si>
+  <si>
+    <t>S05351020</t>
+  </si>
+  <si>
+    <t>S05351021</t>
+  </si>
+  <si>
+    <t>S05351022</t>
+  </si>
+  <si>
+    <t>S05351024</t>
+  </si>
+  <si>
+    <t>S05351025</t>
+  </si>
+  <si>
+    <t>S05351026</t>
+  </si>
+  <si>
+    <t>S05351027</t>
+  </si>
+  <si>
+    <t>S05351029</t>
+  </si>
+  <si>
+    <t>S05351032</t>
+  </si>
+  <si>
+    <t>S05351033</t>
+  </si>
+  <si>
+    <t>S05351034</t>
+  </si>
+  <si>
+    <t>S05351035</t>
+  </si>
+  <si>
+    <t>S05351036</t>
+  </si>
+  <si>
+    <t>S05351037</t>
+  </si>
+  <si>
+    <t>S05351038</t>
+  </si>
+  <si>
+    <t>S05351039</t>
+  </si>
+  <si>
+    <t>S05351040</t>
+  </si>
+  <si>
+    <t>S05351041</t>
+  </si>
+  <si>
+    <t>S05351042</t>
+  </si>
+  <si>
+    <t>S05351044</t>
+  </si>
+  <si>
+    <t>S05351045</t>
+  </si>
+  <si>
+    <t>S05351049</t>
+  </si>
+  <si>
+    <t>S05351050</t>
+  </si>
+  <si>
+    <t>S05351052</t>
+  </si>
+  <si>
+    <t>S05351053</t>
+  </si>
+  <si>
+    <t>S05351055</t>
+  </si>
+  <si>
+    <t>S05351056</t>
+  </si>
+  <si>
+    <t>S05351057</t>
+  </si>
+  <si>
+    <t>S05351058</t>
+  </si>
+  <si>
+    <t>S05352001</t>
+  </si>
+  <si>
+    <t>S05352003</t>
+  </si>
+  <si>
+    <t>S05352004</t>
+  </si>
+  <si>
+    <t>S05352005</t>
+  </si>
+  <si>
+    <t>S05352007</t>
+  </si>
+  <si>
+    <t>S05352008</t>
+  </si>
+  <si>
+    <t>S05352012</t>
+  </si>
+  <si>
+    <t>S05352014</t>
+  </si>
+  <si>
+    <t>S05352016</t>
+  </si>
+  <si>
+    <t>S05352017</t>
+  </si>
+  <si>
+    <t>S05352018</t>
+  </si>
+  <si>
+    <t>S05352019</t>
+  </si>
+  <si>
+    <t>S05352020</t>
+  </si>
+  <si>
+    <t>S05352021</t>
+  </si>
+  <si>
+    <t>S05352022</t>
+  </si>
+  <si>
+    <t>S05352023</t>
+  </si>
+  <si>
+    <t>S05352025</t>
+  </si>
+  <si>
+    <t>S05352026</t>
+  </si>
+  <si>
+    <t>S05352028</t>
+  </si>
+  <si>
+    <t>S05352030</t>
+  </si>
+  <si>
+    <t>S05352031</t>
+  </si>
+  <si>
+    <t>S05352032</t>
+  </si>
+  <si>
+    <t>S05352036</t>
+  </si>
+  <si>
+    <t>S05352037</t>
+  </si>
+  <si>
+    <t>S05352038</t>
+  </si>
+  <si>
+    <t>S05352039</t>
+  </si>
+  <si>
+    <t>S05352040</t>
+  </si>
+  <si>
+    <t>S05352041</t>
+  </si>
+  <si>
+    <t>S05352042</t>
+  </si>
+  <si>
+    <t>S05352043</t>
+  </si>
+  <si>
+    <t>S05920027</t>
+  </si>
+  <si>
+    <t>S05240042</t>
+  </si>
+  <si>
+    <t>S05353001</t>
+  </si>
+  <si>
+    <t>S05353004</t>
+  </si>
+  <si>
+    <t>S05353005</t>
+  </si>
+  <si>
+    <t>S05353006</t>
+  </si>
+  <si>
+    <t>S05353007</t>
+  </si>
+  <si>
+    <t>S05353008</t>
+  </si>
+  <si>
+    <t>S05353009</t>
+  </si>
+  <si>
+    <t>S05353012</t>
+  </si>
+  <si>
+    <t>S05353014</t>
+  </si>
+  <si>
+    <t>S05353015</t>
+  </si>
+  <si>
+    <t>S05353016</t>
+  </si>
+  <si>
+    <t>S05353017</t>
+  </si>
+  <si>
+    <t>S05353018</t>
+  </si>
+  <si>
+    <t>S05353019</t>
+  </si>
+  <si>
+    <t>S05353020</t>
+  </si>
+  <si>
+    <t>S05353021</t>
+  </si>
+  <si>
+    <t>S05353022</t>
+  </si>
+  <si>
+    <t>S05353025</t>
+  </si>
+  <si>
+    <t>S05353026</t>
+  </si>
+  <si>
+    <t>S05353027</t>
+  </si>
+  <si>
+    <t>S05353028</t>
+  </si>
+  <si>
+    <t>S05353029</t>
+  </si>
+  <si>
+    <t>S05353031</t>
+  </si>
+  <si>
+    <t>S05353032</t>
+  </si>
+  <si>
+    <t>S05353033</t>
+  </si>
+  <si>
+    <t>S05353035</t>
+  </si>
+  <si>
+    <t>S05353037</t>
+  </si>
+  <si>
+    <t>S05353038</t>
+  </si>
+  <si>
+    <t>S05353039</t>
+  </si>
+  <si>
+    <t>S05353040</t>
+  </si>
+  <si>
+    <t>S05353041</t>
+  </si>
+  <si>
+    <t>S05353042</t>
+  </si>
+  <si>
+    <t>S05353043</t>
+  </si>
+  <si>
+    <t>S05353045</t>
+  </si>
+  <si>
+    <t>S05353046</t>
+  </si>
+  <si>
+    <t>S05353048</t>
+  </si>
+  <si>
+    <t>S05353050</t>
+  </si>
+  <si>
+    <t>S05353051</t>
+  </si>
+  <si>
+    <t>S05353055</t>
+  </si>
+  <si>
+    <t>S05353057</t>
+  </si>
+  <si>
+    <t>S05353058</t>
+  </si>
+  <si>
+    <t>S05353059</t>
+  </si>
+  <si>
+    <t>S05353060</t>
+  </si>
+  <si>
+    <t>S05353061</t>
+  </si>
+  <si>
+    <t>S05353063</t>
+  </si>
+  <si>
+    <t>S04410377</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
   <si>
     <t>學號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答對題數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>領取日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -51,10 +372,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +387,42 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -78,7 +432,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -86,13 +440,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -373,46 +815,694 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="21.375" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="18">
+      <c r="A1" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.6">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.6">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.6">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45739</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.6">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.6">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.6">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.6">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.6">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.6">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.6">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.2">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.6">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.6">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" ht="15.6">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" ht="15.6">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" ht="15.6">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" ht="15.6">
+      <c r="A20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" ht="15.6">
+      <c r="A21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" ht="15.6">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.6">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" ht="15.6">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" ht="15.6">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" ht="15.6">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" ht="16.2">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="1:2" ht="15.6">
+      <c r="A28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" ht="15.6">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" ht="15.6">
+      <c r="A30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" ht="15.6">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" ht="15.6">
+      <c r="A32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" ht="16.2">
+      <c r="A33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="1:2" ht="16.2">
+      <c r="A34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="1:2" ht="15.6">
+      <c r="A35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" ht="15.6">
+      <c r="A36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" ht="15.6">
+      <c r="A37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" ht="15.6">
+      <c r="A38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" ht="15.6">
+      <c r="A39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" ht="15.6">
+      <c r="A40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" ht="15.6">
+      <c r="A41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" ht="15.6">
+      <c r="A42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" ht="15.6">
+      <c r="A43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" ht="15.6">
+      <c r="A44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" ht="15.6">
+      <c r="A45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2" ht="15.6">
+      <c r="A46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" ht="15.6">
+      <c r="A47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" ht="15.6">
+      <c r="A48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2" ht="15.6">
+      <c r="A49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2" ht="15.6">
+      <c r="A50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2" ht="15.6">
+      <c r="A51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" ht="15.6">
+      <c r="A52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" ht="15.6">
+      <c r="A53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2" ht="15.6">
+      <c r="A54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2" ht="15.6">
+      <c r="A55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2" ht="15.6">
+      <c r="A56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:2" ht="15.6">
+      <c r="A57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:2" ht="15.6">
+      <c r="A58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2" ht="15.6">
+      <c r="A59" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:2" ht="15.6">
+      <c r="A60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:2" ht="15.6">
+      <c r="A61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:2" ht="15.6">
+      <c r="A62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:2" ht="15.6">
+      <c r="A63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:2" ht="15.6">
+      <c r="A64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="1:2" ht="15.6">
+      <c r="A65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="1:2" ht="16.2">
+      <c r="A66" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="8"/>
+    </row>
+    <row r="67" spans="1:2" ht="15.6">
+      <c r="A67" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:2" ht="15.6">
+      <c r="A68" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3"/>
+    </row>
+    <row r="69" spans="1:2" ht="15.6">
+      <c r="A69" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="1:2" ht="15.6">
+      <c r="A70" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="1:2" ht="15.6">
+      <c r="A71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="1:2" ht="15.6">
+      <c r="A72" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:2" ht="15.6">
+      <c r="A73" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" spans="1:2" ht="15.6">
+      <c r="A74" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="1:2" ht="15.6">
+      <c r="A75" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" spans="1:2" ht="15.6">
+      <c r="A76" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" spans="1:2" ht="15.6">
+      <c r="A77" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="1:2" ht="15.6">
+      <c r="A78" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="1:2" ht="15.6">
+      <c r="A79" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" spans="1:2" ht="15.6">
+      <c r="A80" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3"/>
+    </row>
+    <row r="81" spans="1:2" ht="15.6">
+      <c r="A81" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="1:2" ht="15.6">
+      <c r="A82" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3"/>
+    </row>
+    <row r="83" spans="1:2" ht="15.6">
+      <c r="A83" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="3"/>
+    </row>
+    <row r="84" spans="1:2" ht="15.6">
+      <c r="A84" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3"/>
+    </row>
+    <row r="85" spans="1:2" ht="15.6">
+      <c r="A85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="3"/>
+    </row>
+    <row r="86" spans="1:2" ht="15.6">
+      <c r="A86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3"/>
+    </row>
+    <row r="87" spans="1:2" ht="15.6">
+      <c r="A87" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="3"/>
+    </row>
+    <row r="88" spans="1:2" ht="15.6">
+      <c r="A88" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="3"/>
+    </row>
+    <row r="89" spans="1:2" ht="15.6">
+      <c r="A89" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="3"/>
+    </row>
+    <row r="90" spans="1:2" ht="15.6">
+      <c r="A90" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="3"/>
+    </row>
+    <row r="91" spans="1:2" ht="15.6">
+      <c r="A91" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="3"/>
+    </row>
+    <row r="92" spans="1:2" ht="15.6">
+      <c r="A92" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3"/>
+    </row>
+    <row r="93" spans="1:2" ht="15.6">
+      <c r="A93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="3"/>
+    </row>
+    <row r="94" spans="1:2" ht="15.6">
+      <c r="A94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="3"/>
+    </row>
+    <row r="95" spans="1:2" ht="15.6">
+      <c r="A95" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="3"/>
+    </row>
+    <row r="96" spans="1:2" ht="15.6">
+      <c r="A96" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3"/>
+    </row>
+    <row r="97" spans="1:2" ht="15.6">
+      <c r="A97" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" s="3"/>
+    </row>
+    <row r="98" spans="1:2" ht="15.6">
+      <c r="A98" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" s="3"/>
+    </row>
+    <row r="99" spans="1:2" ht="16.2">
+      <c r="A99" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="8"/>
+    </row>
+    <row r="100" spans="1:2" ht="15.6">
+      <c r="A100" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3"/>
+    </row>
+    <row r="101" spans="1:2" ht="15.6">
+      <c r="A101" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="3"/>
+    </row>
+    <row r="102" spans="1:2" ht="15.6">
+      <c r="A102" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" s="3"/>
+    </row>
+    <row r="103" spans="1:2" ht="15.6">
+      <c r="A103" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="3"/>
+    </row>
+    <row r="104" spans="1:2" ht="16.2">
+      <c r="A104" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" s="8"/>
+    </row>
+    <row r="105" spans="1:2" ht="15.6">
+      <c r="A105" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="3"/>
+    </row>
+    <row r="106" spans="1:2" ht="15.6">
+      <c r="A106" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3"/>
+    </row>
+    <row r="107" spans="1:2" ht="16.2">
+      <c r="A107" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" s="8"/>
+    </row>
+    <row r="108" spans="1:2" ht="15.6">
+      <c r="A108" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" s="3"/>
+    </row>
+    <row r="109" spans="1:2" ht="16.2">
+      <c r="A109" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" s="8"/>
+    </row>
+    <row r="110" spans="1:2" ht="15.6">
+      <c r="A110" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" s="3"/>
+    </row>
+    <row r="111" spans="1:2" ht="15.6">
+      <c r="A111" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" s="3"/>
+    </row>
+    <row r="112" spans="1:2" ht="15.6">
+      <c r="A112" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" s="3"/>
+    </row>
+    <row r="113" spans="1:2" ht="16.2" thickBot="1">
+      <c r="A113" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
